--- a/biology/Zoologie/Gerald_Durrell/Gerald_Durrell.xlsx
+++ b/biology/Zoologie/Gerald_Durrell/Gerald_Durrell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerald Durrell, né le 7 janvier 1925 à Jamshedpur (Raj britannique) et mort le 30 janvier 1995 à Saint-Hélier (Jersey), est un naturaliste, écrivain et présentateur de télévision britannique, principalement connu pour avoir fondé le Durrell Wildlife Conservation Trust (en) et le zoo de Jersey, sur l'île de Jersey, dans la Manche, en 1958. Il est le frère cadet de l'écrivain et poète Lawrence Durrell, de Leslie Durrell et de Margaret Durrell.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né Gerald Malcolm Durrell, il passe une partie de son enfance (de 1935 à 1939) à Corfou, en Grèce. Il y fait la connaissance du médecin, poète, traducteur et naturaliste Theodore Stephanides, qui lui fait découvrir la richesse de la faune et de la flore de l'île. Leur amitié durera jusqu'à la mort de Stephanides, en 1983 [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né Gerald Malcolm Durrell, il passe une partie de son enfance (de 1935 à 1939) à Corfou, en Grèce. Il y fait la connaissance du médecin, poète, traducteur et naturaliste Theodore Stephanides, qui lui fait découvrir la richesse de la faune et de la flore de l'île. Leur amitié durera jusqu'à la mort de Stephanides, en 1983 .
 Ses essais sont un mélange d'autobiographie et de zoologie. Écrits avec beaucoup d'humour, basés sur ses expériences personnelles, Gerald Durrell nous fait découvrir la nature avec passion, à travers son regard de naturaliste. Il fait ce faisant un important travail de vulgarisation scientifique.
 Par exemple, son essai Le naturaliste en campagne (écrit en collaboration avec son épouse Lee Durrell) est une initiation à l'étude scientifique des écosystèmes : il contient tout autant des informations sur des écosystèmes fort éloignés que des expériences à faire chez soi, dans son propre jardin. Ce faisant, il introduit en douceur le lecteur dans le cœur de la démarche scientifique.
 </t>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gerald Durrell, Les Limiers de Bafut - Au pays des souris volantes, Cameroun, années 50. Édition Phébus, Paris (1997). (orig. The Bafut Beagles, Rupert Hart-Davis, London, 1954).
 Gerald Durrell, Ma famille et autres animaux. 1er tome de la Trilogie de Corfou. Gallmeister, Paris (2007). Paru précédemment en français sous le titre Fééries dans l'île. Stock, Paris (1986). (orig. My Family and Other Animals - Rupert Hart-Davis, London, 1956).
@@ -585,7 +601,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1981 – Ordre de l'Arche d'or par le Prince Bernhard des Pays-Bas
 1982 – Officier (OBE) de l'Empire britannique</t>
